--- a/data/voting_age_county_level_clean_v2.0.xlsx
+++ b/data/voting_age_county_level_clean_v2.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ts3593_cumc_columbia_edu/Documents/DS/p8105_final_voting_crisis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiang\Desktop\p8105_final_voting_crisis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3A5F5958-8846-418D-BDD5-96F53763022B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78AB4A46-CAC1-4AAA-A83E-33D35A35CB46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433D1F21-3837-44B4-AC03-83E1800C45E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="495" windowWidth="32790" windowHeight="19755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -250,17 +250,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,13 +570,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -640,7 +647,7 @@
         <v>21.528500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -672,7 +679,7 @@
         <v>23.622409999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -704,7 +711,7 @@
         <v>19.079750000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -736,7 +743,7 @@
         <v>24.344909999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -768,7 +775,7 @@
         <v>24.778030000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -800,7 +807,7 @@
         <v>23.69059</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -832,7 +839,7 @@
         <v>25.379290000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -864,7 +871,7 @@
         <v>24.19472</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -896,7 +903,7 @@
         <v>26.098739999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -928,7 +935,7 @@
         <v>20.714390000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -960,7 +967,7 @@
         <v>29.577459999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -992,7 +999,7 @@
         <v>20.163509999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>29.485279999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>22.409800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1088,7 +1095,7 @@
         <v>23.032229999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>28.541039999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>21.4604</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>24.499690000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>23.788350000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>26.582080000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>35.63608</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>26.152640000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1344,7 +1351,7 @@
         <v>18.1524</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>19.71087</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>24.54158</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>22.043209999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>22.870940000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>22.31026</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>24.35839</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>23.7014</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>20.988040000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>23.969889999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>24.34545</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>22.239799999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>25.352229999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>19.415019999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>22.317129999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>20.799520000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>25.241320000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>22.56776</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>22.27441</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v>21.63965</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>21.69333</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>23.324850000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>22.03556</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2080,7 +2087,7 @@
         <v>23.10275</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>22.449310000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2144,7 +2151,7 @@
         <v>26.548220000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2176,7 +2183,7 @@
         <v>26.128830000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>24.18093</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2240,7 +2247,7 @@
         <v>25.126329999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>22.512779999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2304,7 +2311,7 @@
         <v>24.67728</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>25.609629999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>18.00057</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2400,7 +2407,7 @@
         <v>24.359259999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2432,7 +2439,7 @@
         <v>27.47954</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>24.11598</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>24.064070000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>23.675709999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2560,7 +2567,7 @@
         <v>22.560020000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>72</v>
       </c>
